--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFA99C-45B7-C441-B469-2611FFD2A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B448E63-4E85-7A4F-8E65-657477747DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1240" windowWidth="26860" windowHeight="17440" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="86">
   <si>
     <t>Strain</t>
   </si>
@@ -508,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -602,9 +602,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -623,9 +620,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -663,21 +657,20 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="92">
     <dxf>
       <font>
         <color rgb="FF7030A0"/>
@@ -730,6 +723,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -745,6 +743,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -755,6 +758,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -765,6 +778,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -775,11 +793,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -805,6 +833,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -830,6 +863,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -840,6 +883,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -860,6 +908,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -880,6 +938,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -905,11 +968,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -920,6 +993,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -945,6 +1023,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -970,6 +1053,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -980,6 +1078,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -990,6 +1093,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -1005,97 +1113,12 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -1441,20 +1464,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:J17"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="4" customWidth="1"/>
@@ -1521,7 +1544,7 @@
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="6">
@@ -1571,7 +1594,7 @@
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="6">
@@ -1621,7 +1644,7 @@
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="6">
@@ -1671,7 +1694,7 @@
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="6">
@@ -1721,7 +1744,7 @@
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="6">
@@ -1771,7 +1794,7 @@
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="6">
@@ -1821,7 +1844,7 @@
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="6">
@@ -1871,7 +1894,7 @@
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="6">
@@ -1921,7 +1944,7 @@
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="6">
@@ -1971,7 +1994,7 @@
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="6">
@@ -2021,7 +2044,7 @@
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="6">
@@ -2069,7 +2092,7 @@
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="6">
@@ -2119,7 +2142,7 @@
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="6">
@@ -2169,7 +2192,7 @@
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="6">
@@ -2219,7 +2242,7 @@
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="6">
@@ -2269,7 +2292,7 @@
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="6">
@@ -2321,7 +2344,7 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="6">
@@ -2371,7 +2394,7 @@
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="6">
@@ -2423,7 +2446,7 @@
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="6">
@@ -2475,7 +2498,7 @@
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="6">
@@ -2527,7 +2550,7 @@
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="6">
@@ -2579,7 +2602,7 @@
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="6">
@@ -2629,7 +2652,7 @@
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="6">
@@ -2679,7 +2702,7 @@
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="6">
@@ -2731,7 +2754,7 @@
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="6">
@@ -2783,7 +2806,7 @@
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="6">
@@ -2835,7 +2858,7 @@
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="6">
@@ -2887,7 +2910,7 @@
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="6">
@@ -2937,7 +2960,7 @@
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="6">
@@ -2985,7 +3008,7 @@
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="6">
@@ -3035,7 +3058,7 @@
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="6">
@@ -3085,7 +3108,7 @@
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="6">
@@ -3135,7 +3158,7 @@
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="6">
@@ -3185,7 +3208,7 @@
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="6">
@@ -3226,7 +3249,7 @@
         <v>1375</v>
       </c>
       <c r="O35" s="11">
-        <f t="shared" ref="O35:O55" si="2">N35*10^2</f>
+        <f t="shared" ref="O35:O58" si="2">N35*10^2</f>
         <v>137500</v>
       </c>
       <c r="P35" s="5"/>
@@ -3235,7 +3258,7 @@
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="6">
@@ -3285,7 +3308,7 @@
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="6">
@@ -3333,7 +3356,7 @@
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="6">
@@ -3342,7 +3365,7 @@
       <c r="D38" s="5">
         <v>200</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -3383,7 +3406,7 @@
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="6">
@@ -3392,7 +3415,7 @@
       <c r="D39" s="5">
         <v>200</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -3433,7 +3456,7 @@
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="6">
@@ -3442,7 +3465,7 @@
       <c r="D40" s="5">
         <v>200</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -3483,7 +3506,7 @@
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="6">
@@ -3492,7 +3515,7 @@
       <c r="D41" s="5">
         <v>200</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -3533,7 +3556,7 @@
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="6">
@@ -3542,7 +3565,7 @@
       <c r="D42" s="5">
         <v>200</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -3557,10 +3580,10 @@
       <c r="I42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L42" s="5">
@@ -3583,7 +3606,7 @@
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C43" s="6">
@@ -3592,7 +3615,7 @@
       <c r="D43" s="5">
         <v>200</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="13" t="s">
@@ -3633,7 +3656,7 @@
       <c r="A44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C44" s="6">
@@ -3642,7 +3665,7 @@
       <c r="D44" s="5">
         <v>200</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="13" t="s">
@@ -3683,7 +3706,7 @@
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="6">
@@ -3692,7 +3715,7 @@
       <c r="D45" s="5">
         <v>200</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -3707,10 +3730,10 @@
       <c r="I45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L45" s="5">
@@ -3733,7 +3756,7 @@
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="6">
@@ -3742,7 +3765,7 @@
       <c r="D46" s="5">
         <v>200</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="38" t="s">
         <v>57</v>
       </c>
       <c r="F46" s="13" t="s">
@@ -3757,10 +3780,10 @@
       <c r="I46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="K46" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L46" s="5">
@@ -3785,7 +3808,7 @@
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C47" s="6">
@@ -3794,7 +3817,7 @@
       <c r="D47" s="5">
         <v>221</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F47" s="13" t="s">
@@ -3809,10 +3832,10 @@
       <c r="I47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="J47" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L47" s="5">
@@ -3835,7 +3858,7 @@
       <c r="A48" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="6">
@@ -3844,7 +3867,7 @@
       <c r="D48" s="5">
         <v>221</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -3859,10 +3882,10 @@
       <c r="I48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="39" t="s">
+      <c r="J48" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="K48" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L48" s="5">
@@ -3885,7 +3908,7 @@
       <c r="A49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="6">
@@ -3894,7 +3917,7 @@
       <c r="D49" s="5">
         <v>221</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F49" s="13" t="s">
@@ -3935,7 +3958,7 @@
       <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C50" s="6">
@@ -3944,7 +3967,7 @@
       <c r="D50" s="5">
         <v>221</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F50" s="13" t="s">
@@ -3959,10 +3982,10 @@
       <c r="I50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="J50" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="K50" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L50" s="5">
@@ -3985,7 +4008,7 @@
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C51" s="6">
@@ -3994,7 +4017,7 @@
       <c r="D51" s="5">
         <v>221</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -4012,7 +4035,7 @@
       <c r="J51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L51" s="5" t="s">
@@ -4035,7 +4058,7 @@
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C52" s="6">
@@ -4044,7 +4067,7 @@
       <c r="D52" s="5">
         <v>221</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="13" t="s">
@@ -4085,7 +4108,7 @@
       <c r="A53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="6">
@@ -4094,7 +4117,7 @@
       <c r="D53" s="5">
         <v>221</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F53" s="13" t="s">
@@ -4135,7 +4158,7 @@
       <c r="A54" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="6">
@@ -4144,7 +4167,7 @@
       <c r="D54" s="5">
         <v>221</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -4159,10 +4182,10 @@
       <c r="I54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="39" t="s">
+      <c r="J54" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="K54" s="39" t="s">
+      <c r="K54" s="38" t="s">
         <v>69</v>
       </c>
       <c r="L54" s="5">
@@ -4185,7 +4208,7 @@
       <c r="A55" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="6">
@@ -4194,7 +4217,7 @@
       <c r="D55" s="5">
         <v>221</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F55" s="13" t="s">
@@ -4235,7 +4258,7 @@
       <c r="A56" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="6">
@@ -4244,30 +4267,48 @@
       <c r="D56" s="5">
         <v>205</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="61" t="s">
+      <c r="F56" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="5">
+        <v>59</v>
+      </c>
+      <c r="M56" s="5">
+        <v>76</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" ref="N56:N58" si="4">AVERAGE(L56:M56)*10^2</f>
+        <v>6750</v>
+      </c>
+      <c r="O56" s="11">
+        <f t="shared" si="2"/>
+        <v>675000</v>
+      </c>
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C57" s="6">
@@ -4276,30 +4317,48 @@
       <c r="D57" s="5">
         <v>205</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="61" t="s">
+      <c r="F57" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="5">
+        <v>20</v>
+      </c>
+      <c r="M57" s="5">
+        <v>16</v>
+      </c>
+      <c r="N57" s="5">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
+      <c r="O57" s="11">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="6">
@@ -4308,305 +4367,489 @@
       <c r="D58" s="5">
         <v>205</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="61" t="s">
+      <c r="F58" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="5">
+        <v>52</v>
+      </c>
+      <c r="M58" s="5">
+        <v>41</v>
+      </c>
+      <c r="N58" s="5">
+        <f t="shared" si="4"/>
+        <v>4650</v>
+      </c>
+      <c r="O58" s="11">
+        <f t="shared" si="2"/>
+        <v>465000</v>
+      </c>
       <c r="P58" s="5"/>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="6">
+        <v>45453</v>
+      </c>
+      <c r="D59" s="5">
+        <v>215</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O59" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" s="5"/>
+    </row>
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="6">
+        <v>45453</v>
+      </c>
+      <c r="D60" s="5">
+        <v>215</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P60" s="5"/>
+    </row>
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="6">
+        <v>45453</v>
+      </c>
+      <c r="D61" s="5">
+        <v>215</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O61" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P61" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H38:H42">
-    <cfRule type="cellIs" dxfId="85" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="76" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="63" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="64" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="65" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="74" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="69" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="88" priority="71" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="70" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="69" operator="greaterThan">
+      <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I29">
-    <cfRule type="cellIs" dxfId="79" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="92" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="91" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="90" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I35">
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="82" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:K58">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H56)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="between">
+      <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H56)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="between">
+      <formula>10</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:M100">
-    <cfRule type="containsText" dxfId="69" priority="95" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="104" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="81" operator="lessThan">
+    <cfRule type="containsText" dxfId="68" priority="101" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="87" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:M34">
-    <cfRule type="cellIs" dxfId="65" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="88" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="79" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="64" priority="85" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
-    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="53" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="58" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42">
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="32" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="33" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="44" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="37" operator="containsText" text="TMTC">
+    <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="38" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I50 H47:H55 I51:J51">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="36" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:I55">
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I52)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:K40">
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="TMTC">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="35" priority="51" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="52" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:K44 H44:H45 I45">
-    <cfRule type="cellIs" dxfId="33" priority="55" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="56" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="68" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="61" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="66" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="63" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="62" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="61" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:K55">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+      <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="between">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
       <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="24" operator="between">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6811,19 +7054,19 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35" style="42"/>
+    <col min="1" max="1" width="6.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="35" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -6834,145 +7077,145 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3" s="47">
         <v>205</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="A4" s="44">
         <v>215</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="49">
+      <c r="A5" s="47">
         <v>216</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="50">
         <v>220</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
+      <c r="A7" s="47">
         <v>227</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
+      <c r="A8" s="47">
         <v>228</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="52">
+      <c r="A9" s="50">
         <v>194</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="52" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="49">
+      <c r="A10" s="47">
         <v>204</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="44">
         <v>14</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+      <c r="A12" s="44">
         <v>6</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="49">
+      <c r="A13" s="47">
         <v>200</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="49" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="49">
+      <c r="A14" s="47">
         <v>221</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="49" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6989,16 +7232,16 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="15" bestFit="1" customWidth="1"/>
@@ -7045,25 +7288,25 @@
       <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="53">
         <v>45421</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="53">
         <v>45422</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="53">
         <v>45423</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="53">
         <v>45424</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="53">
         <v>45425</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="53">
         <v>45426</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="53">
         <v>45427</v>
       </c>
     </row>
@@ -7074,25 +7317,25 @@
       <c r="B3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="53">
         <v>45425</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="53">
         <v>45426</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="53">
         <v>45427</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="53">
         <v>45428</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="53">
         <v>45429</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="53">
         <v>45430</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="53">
         <v>45431</v>
       </c>
     </row>
@@ -7103,25 +7346,25 @@
       <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <v>45432</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="53">
         <v>45433</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="53">
         <v>45434</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="53">
         <v>45435</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <v>45436</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="53">
         <v>45437</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <v>45438</v>
       </c>
     </row>
@@ -7132,25 +7375,25 @@
       <c r="B5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="53">
         <v>45435</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="53">
         <v>45436</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="53">
         <v>45437</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="53">
         <v>45438</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="53">
         <v>45439</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="53">
         <v>45440</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <v>45441</v>
       </c>
     </row>
@@ -7161,25 +7404,25 @@
       <c r="B6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="53">
         <v>45438</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="53">
         <v>45439</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="53">
         <v>45440</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="53">
         <v>45441</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="53">
         <v>45442</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="53">
         <v>45443</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="53">
         <v>45444</v>
       </c>
     </row>
@@ -7190,25 +7433,25 @@
       <c r="B7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="53">
         <v>45439</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="53">
         <v>45440</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="53">
         <v>45441</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>45442</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="53">
         <v>45443</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <v>45444</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="53">
         <v>45445</v>
       </c>
     </row>
@@ -7219,117 +7462,117 @@
       <c r="B8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="53">
         <v>45442</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="53">
         <v>45443</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="53">
         <v>45444</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="53">
         <v>45445</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="53">
         <v>45446</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="53">
         <v>45447</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="53">
         <v>45448</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="54">
         <v>45449</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>45450</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="54">
         <v>45451</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="54">
         <v>45452</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="54">
         <v>45453</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="54">
         <v>45454</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="54">
         <v>45455</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="54">
         <v>45453</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="54">
         <v>45454</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <v>45455</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="54">
         <v>45456</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="54">
         <v>45457</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="54">
         <v>45458</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="54">
         <v>45459</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="58">
-        <v>45456</v>
-      </c>
-      <c r="D11" s="58">
-        <v>45457</v>
-      </c>
-      <c r="E11" s="58">
-        <v>45458</v>
-      </c>
-      <c r="F11" s="58">
-        <v>45459</v>
-      </c>
-      <c r="G11" s="58">
-        <v>45460</v>
-      </c>
-      <c r="H11" s="58">
-        <v>45461</v>
-      </c>
-      <c r="I11" s="58">
-        <v>45462</v>
+      <c r="C11" s="54">
+        <v>45466</v>
+      </c>
+      <c r="D11" s="54">
+        <v>45467</v>
+      </c>
+      <c r="E11" s="55">
+        <v>45468</v>
+      </c>
+      <c r="F11" s="55">
+        <v>45469</v>
+      </c>
+      <c r="G11" s="55">
+        <v>45470</v>
+      </c>
+      <c r="H11" s="55">
+        <v>45471</v>
+      </c>
+      <c r="I11" s="55">
+        <v>45472</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="44"/>
+      <c r="B12" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B448E63-4E85-7A4F-8E65-657477747DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C787F8-1231-1444-A6D8-12AF2905F340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="87">
   <si>
     <t>Strain</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>2-10</t>
+  </si>
+  <si>
+    <t>lots of fungal contamination</t>
   </si>
 </sst>
 </file>
@@ -420,18 +423,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -508,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -537,7 +534,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,15 +572,15 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,7 +596,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -648,16 +645,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,13 +1458,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4547,6 +4541,436 @@
         <v>45</v>
       </c>
       <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D62" s="5">
+        <v>6</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2</v>
+      </c>
+      <c r="I62" s="5">
+        <v>7</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D63" s="5">
+        <v>6</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D64" s="5">
+        <v>6</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O64" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D65" s="5">
+        <v>6</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O65" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O66" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5">
+        <v>4</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O67" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D68" s="5">
+        <v>6</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O68" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D69" s="5">
+        <v>6</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="5">
+        <v>29</v>
+      </c>
+      <c r="I69" s="5">
+        <v>36</v>
+      </c>
+      <c r="J69" s="5">
+        <v>9</v>
+      </c>
+      <c r="K69" s="5">
+        <v>1</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5">
+        <v>1</v>
+      </c>
+      <c r="N69" s="5">
+        <f>AVERAGE(H69:I69)</f>
+        <v>32.5</v>
+      </c>
+      <c r="O69" s="11">
+        <f t="shared" ref="O69:O70" si="5">N69*10^2</f>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="6">
+        <v>45459</v>
+      </c>
+      <c r="D70" s="5">
+        <v>6</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H70" s="5">
+        <v>28</v>
+      </c>
+      <c r="I70" s="5">
+        <v>38</v>
+      </c>
+      <c r="J70" s="5">
+        <v>2</v>
+      </c>
+      <c r="K70" s="5">
+        <v>6</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
+        <v>1</v>
+      </c>
+      <c r="N70" s="5">
+        <f>AVERAGE(H70:I70)</f>
+        <v>33</v>
+      </c>
+      <c r="O70" s="11">
+        <f t="shared" si="5"/>
+        <v>3300</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7232,11 +7656,11 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7488,7 +7912,7 @@
       <c r="A9" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="54">
@@ -7543,32 +7967,32 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="54">
-        <v>45466</v>
+        <v>45459</v>
       </c>
       <c r="D11" s="54">
-        <v>45467</v>
-      </c>
-      <c r="E11" s="55">
-        <v>45468</v>
-      </c>
-      <c r="F11" s="55">
-        <v>45469</v>
-      </c>
-      <c r="G11" s="55">
-        <v>45470</v>
-      </c>
-      <c r="H11" s="55">
-        <v>45471</v>
-      </c>
-      <c r="I11" s="55">
-        <v>45472</v>
+        <v>45460</v>
+      </c>
+      <c r="E11" s="54">
+        <v>45461</v>
+      </c>
+      <c r="F11" s="54">
+        <v>45462</v>
+      </c>
+      <c r="G11" s="54">
+        <v>45463</v>
+      </c>
+      <c r="H11" s="54">
+        <v>45464</v>
+      </c>
+      <c r="I11" s="54">
+        <v>45465</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C787F8-1231-1444-A6D8-12AF2905F340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9E7ED-79A8-2846-8A93-AC74108B0B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -1460,7 +1460,7 @@
   </sheetPr>
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7656,11 +7656,11 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9E7ED-79A8-2846-8A93-AC74108B0B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E963487B-6C48-3943-86FB-0FE7A83C55CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="2" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
     <sheet name="Sara's Data" sheetId="4" r:id="rId2"/>
-    <sheet name="strains" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
     <sheet name="schedule" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="121">
   <si>
     <t>Strain</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Sample/plate</t>
   </si>
   <si>
-    <t>-80 #</t>
-  </si>
-  <si>
     <t>215(1)</t>
   </si>
   <si>
@@ -304,6 +301,111 @@
   </si>
   <si>
     <t>lots of fungal contamination</t>
+  </si>
+  <si>
+    <t>Match Genome</t>
+  </si>
+  <si>
+    <t>Reseq/Genbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas rhodesiae CIP104664 </t>
+  </si>
+  <si>
+    <t>GCF_024169765.1</t>
+  </si>
+  <si>
+    <t>Pseudomonas orientalis DSM 17489</t>
+  </si>
+  <si>
+    <t>GCF_001439815.1</t>
+  </si>
+  <si>
+    <t>Pseudomonas syringae DSM 10604  </t>
+  </si>
+  <si>
+    <t>GCA_000597765.1</t>
+  </si>
+  <si>
+    <t>Pseudomonas putida S13.1.2</t>
+  </si>
+  <si>
+    <t>GCF_000498395.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas pergaminensis 1008 </t>
+  </si>
+  <si>
+    <t>GCF_024112395.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas lijiangensis LJ2 </t>
+  </si>
+  <si>
+    <t>GCF_018968705.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas paralactis DSM 29164 </t>
+  </si>
+  <si>
+    <t>GCA_001439735.1</t>
+  </si>
+  <si>
+    <t>P. rhodesiae</t>
+  </si>
+  <si>
+    <t>P. orientalis</t>
+  </si>
+  <si>
+    <t>P. putida</t>
+  </si>
+  <si>
+    <t>P. pergaminensis</t>
+  </si>
+  <si>
+    <t>P. lijiangensis</t>
+  </si>
+  <si>
+    <t>ANI</t>
+  </si>
+  <si>
+    <t>Species Match</t>
+  </si>
+  <si>
+    <t>Species Complex</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>David Baltrus</t>
+  </si>
+  <si>
+    <t>Alan Collmer</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>P. syringae pv. Syringae</t>
+  </si>
+  <si>
+    <t>Kathryn L Herr</t>
+  </si>
+  <si>
+    <t>-80</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>pisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loper,J.E.(1987).Lackofevidenceforinsitufluorescentpigmentproduc- tion by Pseudomonas syringae pv. syringae on bean leaf surfaces. Phytopathology 77, 1449. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirano, S., and Upper, C. (1990). Population biology and epidemiology of Pseudomonas syringae. Annu. Rev. Phytopathol. 28, 155–177. </t>
   </si>
 </sst>
 </file>
@@ -314,7 +416,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,57 +470,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -505,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -581,12 +632,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,41 +654,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,6 +672,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,6 +742,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -752,6 +772,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -762,6 +787,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -827,6 +857,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -837,6 +872,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -897,11 +942,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -912,6 +967,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -932,6 +992,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -942,6 +1012,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -952,6 +1027,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -962,11 +1042,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -992,6 +1087,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -1017,6 +1117,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -1027,102 +1132,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -1470,7 +1485,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
@@ -1488,7 +1503,7 @@
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1538,7 +1553,7 @@
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="6">
@@ -1588,7 +1603,7 @@
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="6">
@@ -1638,7 +1653,7 @@
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="6">
@@ -1688,7 +1703,7 @@
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="6">
@@ -1738,7 +1753,7 @@
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="6">
@@ -1788,7 +1803,7 @@
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="6">
@@ -1838,7 +1853,7 @@
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="6">
@@ -1888,7 +1903,7 @@
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="6">
@@ -1938,7 +1953,7 @@
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="6">
@@ -1988,7 +2003,7 @@
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="6">
@@ -2038,7 +2053,7 @@
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="6">
@@ -2077,7 +2092,7 @@
       <c r="N12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="31" t="s">
         <v>45</v>
       </c>
       <c r="P12" s="5"/>
@@ -2086,7 +2101,7 @@
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="6">
@@ -2136,7 +2151,7 @@
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="6">
@@ -2186,7 +2201,7 @@
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="6">
@@ -2236,7 +2251,7 @@
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="6">
@@ -2286,7 +2301,7 @@
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="6">
@@ -2338,7 +2353,7 @@
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="6">
@@ -2388,7 +2403,7 @@
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="6">
@@ -2440,7 +2455,7 @@
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="6">
@@ -2492,7 +2507,7 @@
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="6">
@@ -2544,7 +2559,7 @@
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="6">
@@ -2596,7 +2611,7 @@
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="6">
@@ -2646,7 +2661,7 @@
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="6">
@@ -2696,7 +2711,7 @@
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="6">
@@ -2748,7 +2763,7 @@
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="6">
@@ -2800,7 +2815,7 @@
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="6">
@@ -2852,7 +2867,7 @@
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="6">
@@ -2904,7 +2919,7 @@
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="6">
@@ -2954,7 +2969,7 @@
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="6">
@@ -2993,7 +3008,7 @@
       <c r="N30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="33" t="s">
+      <c r="O30" s="31" t="s">
         <v>45</v>
       </c>
       <c r="P30" s="5"/>
@@ -3002,7 +3017,7 @@
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="6">
@@ -3052,7 +3067,7 @@
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="6">
@@ -3102,7 +3117,7 @@
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="6">
@@ -3152,7 +3167,7 @@
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="6">
@@ -3202,7 +3217,7 @@
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="6">
@@ -3252,7 +3267,7 @@
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="6">
@@ -3291,7 +3306,7 @@
       <c r="N36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O36" s="33" t="s">
+      <c r="O36" s="31" t="s">
         <v>45</v>
       </c>
       <c r="P36" s="5" t="s">
@@ -3302,7 +3317,7 @@
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="6">
@@ -3341,7 +3356,7 @@
       <c r="N37" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O37" s="33" t="s">
+      <c r="O37" s="31" t="s">
         <v>45</v>
       </c>
       <c r="P37" s="5"/>
@@ -3350,7 +3365,7 @@
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="6">
@@ -3359,7 +3374,7 @@
       <c r="D38" s="5">
         <v>200</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -3400,7 +3415,7 @@
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="6">
@@ -3409,7 +3424,7 @@
       <c r="D39" s="5">
         <v>200</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -3450,7 +3465,7 @@
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="6">
@@ -3459,7 +3474,7 @@
       <c r="D40" s="5">
         <v>200</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -3500,7 +3515,7 @@
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="6">
@@ -3509,7 +3524,7 @@
       <c r="D41" s="5">
         <v>200</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -3550,7 +3565,7 @@
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="6">
@@ -3559,7 +3574,7 @@
       <c r="D42" s="5">
         <v>200</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -3574,10 +3589,10 @@
       <c r="I42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="38" t="s">
+      <c r="J42" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="36" t="s">
         <v>69</v>
       </c>
       <c r="L42" s="5">
@@ -3600,7 +3615,7 @@
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C43" s="6">
@@ -3609,7 +3624,7 @@
       <c r="D43" s="5">
         <v>200</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="13" t="s">
@@ -3650,7 +3665,7 @@
       <c r="A44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C44" s="6">
@@ -3659,7 +3674,7 @@
       <c r="D44" s="5">
         <v>200</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="13" t="s">
@@ -3700,7 +3715,7 @@
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="6">
@@ -3709,7 +3724,7 @@
       <c r="D45" s="5">
         <v>200</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -3724,10 +3739,10 @@
       <c r="I45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="38" t="s">
+      <c r="J45" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="38" t="s">
+      <c r="K45" s="36" t="s">
         <v>69</v>
       </c>
       <c r="L45" s="5">
@@ -3750,7 +3765,7 @@
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="6">
@@ -3759,7 +3774,7 @@
       <c r="D46" s="5">
         <v>200</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F46" s="13" t="s">
@@ -3774,10 +3789,10 @@
       <c r="I46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K46" s="38" t="s">
+      <c r="K46" s="36" t="s">
         <v>69</v>
       </c>
       <c r="L46" s="5">
@@ -3802,7 +3817,7 @@
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C47" s="6">
@@ -3811,7 +3826,7 @@
       <c r="D47" s="5">
         <v>221</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F47" s="13" t="s">
@@ -3826,10 +3841,10 @@
       <c r="I47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K47" s="38" t="s">
+      <c r="K47" s="36" t="s">
         <v>69</v>
       </c>
       <c r="L47" s="5">
@@ -3852,7 +3867,7 @@
       <c r="A48" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="6">
@@ -3861,7 +3876,7 @@
       <c r="D48" s="5">
         <v>221</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="E48" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -3876,10 +3891,10 @@
       <c r="I48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="38" t="s">
+      <c r="J48" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K48" s="38" t="s">
+      <c r="K48" s="36" t="s">
         <v>69</v>
       </c>
       <c r="L48" s="5">
@@ -3902,7 +3917,7 @@
       <c r="A49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="6">
@@ -3911,7 +3926,7 @@
       <c r="D49" s="5">
         <v>221</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F49" s="13" t="s">
@@ -3952,7 +3967,7 @@
       <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C50" s="6">
@@ -3961,7 +3976,7 @@
       <c r="D50" s="5">
         <v>221</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F50" s="13" t="s">
@@ -3976,10 +3991,10 @@
       <c r="I50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="38" t="s">
+      <c r="J50" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K50" s="38" t="s">
+      <c r="K50" s="36" t="s">
         <v>69</v>
       </c>
       <c r="L50" s="5">
@@ -4002,7 +4017,7 @@
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C51" s="6">
@@ -4011,7 +4026,7 @@
       <c r="D51" s="5">
         <v>221</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="E51" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -4029,7 +4044,7 @@
       <c r="J51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="38" t="s">
+      <c r="K51" s="36" t="s">
         <v>69</v>
       </c>
       <c r="L51" s="5" t="s">
@@ -4052,7 +4067,7 @@
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C52" s="6">
@@ -4061,7 +4076,7 @@
       <c r="D52" s="5">
         <v>221</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F52" s="13" t="s">
@@ -4102,7 +4117,7 @@
       <c r="A53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="6">
@@ -4111,7 +4126,7 @@
       <c r="D53" s="5">
         <v>221</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F53" s="13" t="s">
@@ -4152,7 +4167,7 @@
       <c r="A54" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="6">
@@ -4161,7 +4176,7 @@
       <c r="D54" s="5">
         <v>221</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -4176,10 +4191,10 @@
       <c r="I54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="38" t="s">
+      <c r="J54" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K54" s="38" t="s">
+      <c r="K54" s="36" t="s">
         <v>69</v>
       </c>
       <c r="L54" s="5">
@@ -4202,7 +4217,7 @@
       <c r="A55" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="37" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="6">
@@ -4211,7 +4226,7 @@
       <c r="D55" s="5">
         <v>221</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="36" t="s">
         <v>58</v>
       </c>
       <c r="F55" s="13" t="s">
@@ -4252,7 +4267,7 @@
       <c r="A56" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="6">
@@ -4302,7 +4317,7 @@
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C57" s="6">
@@ -4352,7 +4367,7 @@
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="6">
@@ -4402,7 +4417,7 @@
       <c r="A59" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="6">
@@ -4441,7 +4456,7 @@
       <c r="N59" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O59" s="33" t="s">
+      <c r="O59" s="31" t="s">
         <v>45</v>
       </c>
       <c r="P59" s="5"/>
@@ -4450,7 +4465,7 @@
       <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C60" s="6">
@@ -4489,7 +4504,7 @@
       <c r="N60" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O60" s="33" t="s">
+      <c r="O60" s="31" t="s">
         <v>45</v>
       </c>
       <c r="P60" s="5"/>
@@ -4498,7 +4513,7 @@
       <c r="A61" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="6">
@@ -4537,7 +4552,7 @@
       <c r="N61" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O61" s="33" t="s">
+      <c r="O61" s="31" t="s">
         <v>45</v>
       </c>
       <c r="P61" s="5"/>
@@ -4546,8 +4561,8 @@
       <c r="A62" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="39" t="s">
-        <v>85</v>
+      <c r="B62" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C62" s="6">
         <v>45459</v>
@@ -4585,7 +4600,7 @@
       <c r="N62" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O62" s="33" t="s">
+      <c r="O62" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4593,8 +4608,8 @@
       <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="39" t="s">
-        <v>85</v>
+      <c r="B63" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C63" s="6">
         <v>45459</v>
@@ -4632,7 +4647,7 @@
       <c r="N63" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O63" s="33" t="s">
+      <c r="O63" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4640,8 +4655,8 @@
       <c r="A64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="39" t="s">
-        <v>85</v>
+      <c r="B64" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C64" s="6">
         <v>45459</v>
@@ -4679,7 +4694,7 @@
       <c r="N64" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O64" s="33" t="s">
+      <c r="O64" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4687,8 +4702,8 @@
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>85</v>
+      <c r="B65" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C65" s="6">
         <v>45459</v>
@@ -4726,7 +4741,7 @@
       <c r="N65" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O65" s="33" t="s">
+      <c r="O65" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4734,8 +4749,8 @@
       <c r="A66" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="39" t="s">
-        <v>85</v>
+      <c r="B66" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C66" s="6">
         <v>45459</v>
@@ -4773,7 +4788,7 @@
       <c r="N66" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O66" s="33" t="s">
+      <c r="O66" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4781,8 +4796,8 @@
       <c r="A67" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="39" t="s">
-        <v>85</v>
+      <c r="B67" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C67" s="6">
         <v>45459</v>
@@ -4820,7 +4835,7 @@
       <c r="N67" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O67" s="33" t="s">
+      <c r="O67" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4828,8 +4843,8 @@
       <c r="A68" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="39" t="s">
-        <v>85</v>
+      <c r="B68" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C68" s="6">
         <v>45459</v>
@@ -4867,19 +4882,19 @@
       <c r="N68" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O68" s="33" t="s">
+      <c r="O68" s="31" t="s">
         <v>45</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="39" t="s">
-        <v>85</v>
+      <c r="B69" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C69" s="6">
         <v>45459</v>
@@ -4927,8 +4942,8 @@
       <c r="A70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="39" t="s">
-        <v>85</v>
+      <c r="B70" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C70" s="6">
         <v>45459</v>
@@ -4975,61 +4990,61 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H38:H42">
-    <cfRule type="cellIs" dxfId="91" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="69" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="70" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="71" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="74" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="87" priority="75" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="76" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="71" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="70" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="69" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I29">
-    <cfRule type="cellIs" dxfId="85" priority="92" operator="between">
+    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="90" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="91" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="92" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="91" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="90" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I35">
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="77" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="78" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="77" priority="83" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="84" operator="between">
       <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5056,92 +5071,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:M100">
-    <cfRule type="cellIs" dxfId="69" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="86" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="87" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="101" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="104" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="101" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="87" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="86" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:M34">
-    <cfRule type="cellIs" dxfId="65" priority="88" operator="between">
+    <cfRule type="containsText" dxfId="65" priority="85" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="88" operator="between">
       <formula>10</formula>
       <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="85" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
     <cfRule type="cellIs" dxfId="63" priority="53" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="lessThan">
       <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="TMTC">
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="60" priority="58" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="between">
       <formula>10</formula>
+      <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I42">
-    <cfRule type="cellIs" dxfId="57" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="37" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="38" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I50 H47:H55 I51:J51">
-    <cfRule type="cellIs" dxfId="51" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="31" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="32" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="34" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="47" priority="35" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="36" operator="between">
       <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="32" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5190,83 +5205,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:K44 H44:H45 I45">
-    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="TMTC">
+    <cfRule type="cellIs" dxfId="33" priority="61" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="62" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="66" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="66" operator="between">
+    <cfRule type="containsText" dxfId="29" priority="67" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="68" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="63" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="62" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="61" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:K55">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="lessThan">
       <formula>10</formula>
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="TMTC">
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="between">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="TMTC">
@@ -7474,178 +7489,397 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9BB68-6A78-034C-87BB-A9187692B7F0}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA9448F-FBAF-7A41-878E-8B1AB0A9E2A9}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="35" style="41"/>
+    <col min="1" max="1" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="131.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
+      <c r="E2" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="45">
+        <v>14</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="45">
+        <v>6</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="45">
+        <v>194</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45">
+        <v>194</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="45">
+        <v>98.44</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="45">
+        <v>200</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="45">
+        <v>200</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="45">
+        <v>204</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="45">
+        <v>204</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="45">
+        <v>98.92</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="45">
         <v>205</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C8" s="45">
+        <v>205</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="E8" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="45">
+        <v>95.78</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="45">
         <v>215</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C9" s="45">
+        <v>215</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
+      <c r="E9" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="45">
+        <v>95.57</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="45">
         <v>216</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B10" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C10" s="45">
+        <v>216</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="45">
+        <v>95.42</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="45">
+        <v>220</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="45">
+        <v>220</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
-        <v>220</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="47">
+      <c r="E11" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="45">
+        <v>98.64</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="45">
+        <v>221</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="45">
+        <v>221</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="45">
         <v>227</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C13" s="45">
+        <v>227</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="47">
+      <c r="E13" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="45">
+        <v>98.22</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="45">
         <v>228</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
-        <v>194</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="47">
-        <v>204</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="44">
-        <v>14</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="C14" s="45">
+        <v>228</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="44">
-        <v>6</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
-        <v>200</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="47">
-        <v>221</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>49</v>
+      <c r="E14" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="45">
+        <v>96.6</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7656,7 +7890,7 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7665,7 +7899,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="15" bestFit="1" customWidth="1"/>
@@ -7677,10 +7911,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -7706,297 +7940,297 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="40">
         <v>45421</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="40">
         <v>45422</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="40">
         <v>45423</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="40">
         <v>45424</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="40">
         <v>45425</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="40">
         <v>45426</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="40">
         <v>45427</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="40">
         <v>45425</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="40">
         <v>45426</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="40">
         <v>45427</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="40">
         <v>45428</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="40">
         <v>45429</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="40">
         <v>45430</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="40">
         <v>45431</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="40">
         <v>45432</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="40">
         <v>45433</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="40">
         <v>45434</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="40">
         <v>45435</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="40">
         <v>45436</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="40">
         <v>45437</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="40">
         <v>45438</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="40">
         <v>45435</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="40">
         <v>45436</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="40">
         <v>45437</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="40">
         <v>45438</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="40">
         <v>45439</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="40">
         <v>45440</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="40">
         <v>45441</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="40">
         <v>45438</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="40">
         <v>45439</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="40">
         <v>45440</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="40">
         <v>45441</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="40">
         <v>45442</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="40">
         <v>45443</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="40">
         <v>45444</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="40">
         <v>45439</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="40">
         <v>45440</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="40">
         <v>45441</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="40">
         <v>45442</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="40">
         <v>45443</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="40">
         <v>45444</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="40">
         <v>45445</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="40">
         <v>45442</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="40">
         <v>45443</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="40">
         <v>45444</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="40">
         <v>45445</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="40">
         <v>45446</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="40">
         <v>45447</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="40">
         <v>45448</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="41">
+        <v>45449</v>
+      </c>
+      <c r="D9" s="41">
+        <v>45450</v>
+      </c>
+      <c r="E9" s="41">
+        <v>45451</v>
+      </c>
+      <c r="F9" s="41">
+        <v>45452</v>
+      </c>
+      <c r="G9" s="41">
+        <v>45453</v>
+      </c>
+      <c r="H9" s="41">
+        <v>45454</v>
+      </c>
+      <c r="I9" s="41">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="41">
+        <v>45453</v>
+      </c>
+      <c r="D10" s="41">
+        <v>45454</v>
+      </c>
+      <c r="E10" s="41">
+        <v>45455</v>
+      </c>
+      <c r="F10" s="41">
+        <v>45456</v>
+      </c>
+      <c r="G10" s="41">
+        <v>45457</v>
+      </c>
+      <c r="H10" s="41">
+        <v>45458</v>
+      </c>
+      <c r="I10" s="41">
+        <v>45459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="54">
-        <v>45449</v>
-      </c>
-      <c r="D9" s="54">
-        <v>45450</v>
-      </c>
-      <c r="E9" s="54">
-        <v>45451</v>
-      </c>
-      <c r="F9" s="54">
-        <v>45452</v>
-      </c>
-      <c r="G9" s="54">
-        <v>45453</v>
-      </c>
-      <c r="H9" s="54">
-        <v>45454</v>
-      </c>
-      <c r="I9" s="54">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="54">
-        <v>45453</v>
-      </c>
-      <c r="D10" s="54">
-        <v>45454</v>
-      </c>
-      <c r="E10" s="54">
-        <v>45455</v>
-      </c>
-      <c r="F10" s="54">
-        <v>45456</v>
-      </c>
-      <c r="G10" s="54">
-        <v>45457</v>
-      </c>
-      <c r="H10" s="54">
-        <v>45458</v>
-      </c>
-      <c r="I10" s="54">
+      <c r="B11" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="41">
         <v>45459</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="54">
-        <v>45459</v>
-      </c>
-      <c r="D11" s="54">
+      <c r="D11" s="41">
         <v>45460</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="41">
         <v>45461</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="41">
         <v>45462</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="41">
         <v>45463</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="41">
         <v>45464</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="41">
         <v>45465</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="43"/>
+      <c r="B12" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E963487B-6C48-3943-86FB-0FE7A83C55CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1F82F-6139-7648-A903-2B7405668475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="2" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="2" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="130">
   <si>
     <t>Strain</t>
   </si>
@@ -381,9 +381,6 @@
     <t>David Baltrus</t>
   </si>
   <si>
-    <t>Alan Collmer</t>
-  </si>
-  <si>
     <t>Paper</t>
   </si>
   <si>
@@ -402,10 +399,40 @@
     <t>pisi</t>
   </si>
   <si>
-    <t xml:space="preserve">Loper,J.E.(1987).Lackofevidenceforinsitufluorescentpigmentproduc- tion by Pseudomonas syringae pv. syringae on bean leaf surfaces. Phytopathology 77, 1449. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirano, S., and Upper, C. (1990). Population biology and epidemiology of Pseudomonas syringae. Annu. Rev. Phytopathol. 28, 155–177. </t>
+    <t xml:space="preserve">AEAJ 00000000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEAI 00000000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP000075 </t>
+  </si>
+  <si>
+    <t>Herr et al 2024</t>
+  </si>
+  <si>
+    <t>1704B</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phaseolus vulgaris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pisum sativum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrus leaf surface </t>
+  </si>
+  <si>
+    <t>Alan Collmer/J. Lindemann?</t>
+  </si>
+  <si>
+    <t>Baltrus, D. A., Nishimura, M. T., Romanchuk, A., Chang, J. H., Mukhtar, M. S., Cherkis, K., Roach, J., Grant, S. R., Jones, C. D., &amp; Dangl, J. L. (2011). Dynamic evolution of pathogenicity revealed by sequencing and comparative genomics of 19 Pseudomonas syringae isolates. PLoS Pathogens, 7(7), e1002132. https://doi.org/10.1371/journal.ppat.1002132</t>
+  </si>
+  <si>
+    <t>Hirano, S. S., &amp; Upper, C. D. (1990). Population Biology and Epidemiology of Pseudomonas Syringae. Annual Review of Phytopathology, 28(Volume 28, 1990), 155–177. https://doi.org/10.1146/annurev.py.28.090190.001103</t>
   </si>
 </sst>
 </file>
@@ -672,9 +699,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7490,395 +7515,479 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA9448F-FBAF-7A41-878E-8B1AB0A9E2A9}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="131.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="45"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="45">
-        <v>14</v>
-      </c>
-      <c r="D3" s="45" t="s">
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5">
+        <v>98.44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7">
+        <v>98.92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8">
+        <v>95.78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="45">
-        <v>6</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9">
+        <v>95.57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10">
+        <v>95.42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11">
+        <v>98.64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13">
+        <v>98.22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>228</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
-        <v>194</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="45">
-        <v>194</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="45">
-        <v>98.44</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
-        <v>200</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="45">
-        <v>200</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
-        <v>204</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="45">
-        <v>204</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="45">
-        <v>98.92</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
-        <v>205</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="45">
-        <v>205</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="45">
-        <v>95.78</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
-        <v>215</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="45">
-        <v>215</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="45">
-        <v>95.57</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="45">
-        <v>216</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="45">
-        <v>216</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="45">
-        <v>95.42</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
-        <v>220</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="45">
-        <v>220</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="45">
-        <v>98.64</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="45">
-        <v>221</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="45">
-        <v>221</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
-        <v>227</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="45">
-        <v>227</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="45">
-        <v>98.22</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="45">
-        <v>228</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="45">
-        <v>228</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="45">
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14">
         <v>96.6</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="I14" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="J14" t="s">
         <v>99</v>
       </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1F82F-6139-7648-A903-2B7405668475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55049AF8-2953-374B-93E4-7E825F231796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="2" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="130">
   <si>
     <t>Strain</t>
   </si>
@@ -583,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -699,7 +699,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,6 +766,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -852,6 +866,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -867,6 +886,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -877,6 +901,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -907,6 +936,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -927,6 +971,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -937,6 +986,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -947,6 +1001,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -957,6 +1016,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -977,16 +1041,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -997,6 +1081,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -1037,6 +1141,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -1047,122 +1161,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1500,11 +1499,11 @@
   </sheetPr>
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J72" sqref="J72"/>
+      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1513,8 +1512,8 @@
     <col min="2" max="2" width="5.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -1574,7 +1573,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1624,7 +1623,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -1674,7 +1673,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -1724,7 +1723,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1774,7 +1773,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -1824,7 +1823,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1874,7 +1873,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1924,7 +1923,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +1973,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -2024,7 +2023,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -2074,7 +2073,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -2122,7 +2121,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2171,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -2222,7 +2221,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -2272,7 +2271,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2322,7 +2321,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2424,7 +2423,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2580,7 +2579,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -2682,7 +2681,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -2732,7 +2731,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2990,7 +2989,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -3038,7 +3037,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
@@ -3088,7 +3087,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -3288,7 +3287,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -3386,7 +3385,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -3436,7 +3435,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -3486,7 +3485,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -3536,7 +3535,7 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -3586,7 +3585,7 @@
       </c>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
@@ -3636,7 +3635,7 @@
       </c>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
@@ -3686,7 +3685,7 @@
       </c>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>37</v>
       </c>
@@ -3736,7 +3735,7 @@
       </c>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -3786,7 +3785,7 @@
       </c>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
@@ -3888,7 +3887,7 @@
       </c>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>37</v>
       </c>
@@ -3938,7 +3937,7 @@
       </c>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>37</v>
       </c>
@@ -3988,7 +3987,7 @@
       </c>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
@@ -4038,7 +4037,7 @@
       </c>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -4088,7 +4087,7 @@
       </c>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
@@ -4138,7 +4137,7 @@
       </c>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>37</v>
       </c>
@@ -4188,7 +4187,7 @@
       </c>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>37</v>
       </c>
@@ -4238,7 +4237,7 @@
       </c>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>37</v>
       </c>
@@ -4288,7 +4287,7 @@
       </c>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>37</v>
       </c>
@@ -4338,7 +4337,7 @@
       </c>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -4388,7 +4387,7 @@
       </c>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
@@ -4438,7 +4437,7 @@
       </c>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>37</v>
       </c>
@@ -4486,7 +4485,7 @@
       </c>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
@@ -4534,7 +4533,7 @@
       </c>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>37</v>
       </c>
@@ -4592,8 +4591,8 @@
       <c r="C62" s="6">
         <v>45459</v>
       </c>
-      <c r="D62" s="5">
-        <v>6</v>
+      <c r="D62" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>47</v>
@@ -4639,8 +4638,8 @@
       <c r="C63" s="6">
         <v>45459</v>
       </c>
-      <c r="D63" s="5">
-        <v>6</v>
+      <c r="D63" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>47</v>
@@ -4686,8 +4685,8 @@
       <c r="C64" s="6">
         <v>45459</v>
       </c>
-      <c r="D64" s="5">
-        <v>6</v>
+      <c r="D64" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>47</v>
@@ -4733,8 +4732,8 @@
       <c r="C65" s="6">
         <v>45459</v>
       </c>
-      <c r="D65" s="5">
-        <v>6</v>
+      <c r="D65" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>47</v>
@@ -4780,8 +4779,8 @@
       <c r="C66" s="6">
         <v>45459</v>
       </c>
-      <c r="D66" s="5">
-        <v>6</v>
+      <c r="D66" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>47</v>
@@ -4827,8 +4826,8 @@
       <c r="C67" s="6">
         <v>45459</v>
       </c>
-      <c r="D67" s="5">
-        <v>6</v>
+      <c r="D67" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>47</v>
@@ -4874,8 +4873,8 @@
       <c r="C68" s="6">
         <v>45459</v>
       </c>
-      <c r="D68" s="5">
-        <v>6</v>
+      <c r="D68" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>47</v>
@@ -4924,8 +4923,8 @@
       <c r="C69" s="6">
         <v>45459</v>
       </c>
-      <c r="D69" s="5">
-        <v>6</v>
+      <c r="D69" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>47</v>
@@ -4973,8 +4972,8 @@
       <c r="C70" s="6">
         <v>45459</v>
       </c>
-      <c r="D70" s="5">
-        <v>6</v>
+      <c r="D70" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>47</v>
@@ -5015,61 +5014,61 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H38:H42">
-    <cfRule type="cellIs" dxfId="91" priority="69" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="70" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="71" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="76" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="75" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="74" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="71" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="70" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="69" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:I29">
-    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="90" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="91" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="92" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="91" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="90" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H27)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:I35">
-    <cfRule type="cellIs" dxfId="81" priority="77" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="78" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="79" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="82" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="83" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="82" operator="between">
       <formula>10</formula>
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5096,92 +5095,92 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:M100">
-    <cfRule type="cellIs" dxfId="69" priority="86" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="87" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="101" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="104" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="101" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="87" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:M34">
-    <cfRule type="containsText" dxfId="65" priority="85" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="88" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="88" operator="between">
       <formula>10</formula>
       <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="85" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
     <cfRule type="cellIs" dxfId="63" priority="53" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="between">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="TMTC">
+      <formula>200</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="60" priority="58" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="cellIs" dxfId="57" priority="44" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
-    <cfRule type="cellIs" dxfId="57" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="38" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",I41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="44" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I50 H47:H55 I51:J51">
+    <cfRule type="cellIs" dxfId="51" priority="36" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I50 H47:H55 I51:J51">
-    <cfRule type="cellIs" dxfId="51" priority="31" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="32" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="35" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="lessThan">
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5230,83 +5229,83 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:K44 H44:H45 I45">
-    <cfRule type="cellIs" dxfId="33" priority="61" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="62" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="68" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="67" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="66" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="63" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",H44)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="62" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="61" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:K55">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",J55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="greaterThan">
-      <formula>200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="TMTC">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="TMTC">
       <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="between">
       <formula>10</formula>
       <formula>200</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",L51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="lessThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
+      <formula>200</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="between">
+      <formula>10</formula>
       <formula>200</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="lessThan">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="TMTC">
+      <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="TMTC">
-      <formula>NOT(ISERROR(SEARCH("TMTC",M54)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="between">
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="TMTC">
@@ -5318,7 +5317,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="52" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7517,7 +7516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA9448F-FBAF-7A41-878E-8B1AB0A9E2A9}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -7595,7 +7594,7 @@
       <c r="J2" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7621,7 +7620,7 @@
       <c r="J3" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7650,7 +7649,7 @@
       <c r="J4" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7989,6 +7988,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55049AF8-2953-374B-93E4-7E825F231796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87711C81-4D20-1043-AFEF-A6B9217D55E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="1" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -1499,7 +1499,7 @@
   </sheetPr>
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="G62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5325,7 +5325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E2067-D86F-FE42-96BB-A7B7AC87336F}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
       <selection activeCell="K38" sqref="K38:K40"/>
     </sheetView>
   </sheetViews>

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87711C81-4D20-1043-AFEF-A6B9217D55E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7072E677-D44B-574A-A5A4-4DCF1AD7F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="1" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="2" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -5325,7 +5325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E2067-D86F-FE42-96BB-A7B7AC87336F}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="K38" sqref="K38:K40"/>
     </sheetView>
   </sheetViews>
@@ -7516,7 +7516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA9448F-FBAF-7A41-878E-8B1AB0A9E2A9}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -8003,7 +8003,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:C1"/>
+      <selection pane="bottomRight" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7072E677-D44B-574A-A5A4-4DCF1AD7F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F86F4C-CC41-7C44-BF50-D5E3097D3586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="2" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -1500,10 +1500,10 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomRight" sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1512,8 +1512,8 @@
     <col min="2" max="2" width="5.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -1573,7 +1573,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>37</v>
       </c>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>37</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>37</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>37</v>
       </c>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>37</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>37</v>
       </c>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>37</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>37</v>
       </c>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>37</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>37</v>
       </c>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>37</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>37</v>
       </c>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>37</v>
       </c>
@@ -7516,7 +7516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA9448F-FBAF-7A41-878E-8B1AB0A9E2A9}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -7999,11 +7999,11 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:I1"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/pseud_epi_growth_2024summer.xlsx
+++ b/data/pseud_epi_growth_2024summer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F86F4C-CC41-7C44-BF50-D5E3097D3586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFE6B25-B30A-3D4E-8EAD-3C539AE0BD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" activeTab="3" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="26860" windowHeight="18000" xr2:uid="{A840BDBF-CD53-9241-85E2-C03F72AE1FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="plate counts" sheetId="1" r:id="rId1"/>
@@ -1499,11 +1499,11 @@
   </sheetPr>
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:P2"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7999,7 +7999,7 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
